--- a/RAB Panel Surya.xlsx
+++ b/RAB Panel Surya.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14340" windowHeight="12450"/>
+    <workbookView windowWidth="28125" windowHeight="13080" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RAB" sheetId="1" r:id="rId1"/>
+    <sheet name="Tersedia" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Panel Surya</t>
   </si>
@@ -73,7 +74,34 @@
     <t>https://www.tokopedia.com/temonsoejadi/battery-pack-lifepo4-12v-24v-36v-48v-60v-72v-12ah-24ah-48ah-72ah-100ah-48ah-12v?extParam=ivf%3Dfalse%26src%3Dsearch&amp;refined=true</t>
   </si>
   <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/gudangpanelsurya/power-inverter-stec-stc-dc-to-ac-100watt-12v-100w-modif-100-w?extParam=ivf%3Dfalse%26src%3Dsearch&amp;refined=true</t>
+  </si>
+  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Baterai</t>
+  </si>
+  <si>
+    <t>Litium 12.8V 12Ah</t>
+  </si>
+  <si>
+    <t>VRLA Deep Cycle 12V 7Ah</t>
+  </si>
+  <si>
+    <t>20Watt</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>50A</t>
   </si>
 </sst>
 </file>
@@ -81,19 +109,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$IDR]\ #,##0.00;[$IDR]\ \-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$IDR]\ #,##0.00;[$IDR]\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -131,6 +165,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -139,52 +217,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,68 +248,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,19 +302,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF79646"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,25 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,73 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,61 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,26 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,23 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,8 +565,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,153 +623,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -738,93 +784,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1124,172 +1188,202 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.8583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.7166666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.2916666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8583333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8583333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.575" style="4" customWidth="1"/>
-    <col min="9" max="9" width="129.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="79.875" style="1"/>
+    <col min="1" max="1" width="11.8571428571429" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.12380952380952" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.7142857142857" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.2952380952381" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.8571428571429" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.8571428571429" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.5714285714286" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.5714285714286" style="8" customWidth="1"/>
+    <col min="9" max="9" width="183.714285714286" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="79.8761904761905" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1"/>
     <row r="2" ht="16.5" customHeight="1" spans="2:9">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" ht="16.5" customHeight="1"/>
-    <row r="4" s="1" customFormat="1" ht="30.75" customHeight="1" spans="2:9">
-      <c r="B4" s="7" t="s">
+    <row r="4" s="5" customFormat="1" ht="30.75" customHeight="1" spans="2:9">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="30.75" customHeight="1" spans="2:9">
-      <c r="B5" s="9">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="17">
         <v>620000</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="18">
         <f>E5*G5</f>
         <v>620000</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="30.75" customHeight="1" spans="2:9">
-      <c r="B6" s="9">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="18">
         <v>65000</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="18">
         <f>E6*G6</f>
         <v>65000</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="30.75" customHeight="1" spans="2:9">
-      <c r="B7" s="9">
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="18">
         <v>1984310</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="18">
         <f>E7*G7</f>
         <v>1984310</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="30.75" customHeight="1" spans="7:8">
-      <c r="G8" s="10" t="s">
+    <row r="8" ht="30.75" customHeight="1" spans="2:9">
+      <c r="B8" s="19">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="14">
-        <f>SUM(H5:H7)</f>
-        <v>2669310</v>
+      <c r="D8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="18">
+        <v>160000</v>
+      </c>
+      <c r="H8" s="18">
+        <f>E8*G8</f>
+        <v>160000</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" ht="30.75" customHeight="1"/>
-    <row r="10" ht="30.75" customHeight="1" spans="5:8">
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+    <row r="9" ht="30.75" customHeight="1" spans="2:9">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="18">
+        <f>SUM(H5:H8)</f>
+        <v>2829310</v>
+      </c>
+      <c r="I9" s="24"/>
     </row>
-    <row r="11" ht="30.75" customHeight="1"/>
+    <row r="10" ht="30.75" customHeight="1" spans="5:5">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="30.75" customHeight="1" spans="7:8">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
     <row r="12" ht="30.75" customHeight="1"/>
     <row r="13" ht="30.75" customHeight="1"/>
     <row r="14" ht="30.75" customHeight="1"/>
-    <row r="15" s="1" customFormat="1" ht="30.75" customHeight="1" spans="2:8">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
+    <row r="15" s="5" customFormat="1" ht="30.75" customHeight="1" spans="2:8">
+      <c r="B15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1302,4 +1396,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="4.14285714285714" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="25.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="7.85714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/RAB Panel Surya.xlsx
+++ b/RAB Panel Surya.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13080" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="RAB" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>Inverter</t>
   </si>
   <si>
-    <t>https://www.tokopedia.com/gudangpanelsurya/power-inverter-stec-stc-dc-to-ac-100watt-12v-100w-modif-100-w?extParam=ivf%3Dfalse%26src%3Dsearch&amp;refined=true</t>
+    <t xml:space="preserve">https://www.tokopedia.com/gudangpanelsurya/power-inverter-stec-stc-dc-to-ac-100watt-12v-100w-modif-100-w?extParam=ivf%3Dfalse%26src%3Dsearch&amp;refined=true </t>
   </si>
   <si>
     <t>Total</t>
@@ -768,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -837,6 +837,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1188,8 +1191,8 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1296,7 +1299,7 @@
         <f>E6*G6</f>
         <v>65000</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1350,7 +1353,7 @@
         <f>E8*G8</f>
         <v>160000</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1390,8 +1393,9 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" display="https://www.tokopedia.com/rr-elektrik/solar-panel-solar-cell-panel-surya-gh-100wp-mono-tanpa-peti?extParam=ivf%3Dfalse%26src%3Dsearch"/>
-    <hyperlink ref="I6" r:id="rId2" display="https://www.tokopedia.com/mediatamait/solar-charge-controller-scc-10a-20a-30a-cell-pwm-12v24v-20-ampere?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D9767451"/>
+    <hyperlink ref="I5" r:id="rId1" display="https://www.tokopedia.com/rr-elektrik/solar-panel-solar-cell-panel-surya-gh-100wp-mono-tanpa-peti?extParam=ivf%3Dfalse%26src%3Dsearch" tooltip="https://www.tokopedia.com/rr-elektrik/solar-panel-solar-cell-panel-surya-gh-100wp-mono-tanpa-peti?extParam=ivf%3Dfalse%26src%3Dsearch"/>
+    <hyperlink ref="I8" r:id="rId2" display="https://www.tokopedia.com/gudangpanelsurya/power-inverter-stec-stc-dc-to-ac-100watt-12v-100w-modif-100-w?extParam=ivf%3Dfalse%26src%3Dsearch&amp;refined=true "/>
+    <hyperlink ref="I6" r:id="rId3" display="https://www.tokopedia.com/mediatamait/solar-charge-controller-scc-10a-20a-30a-cell-pwm-12v24v-20-ampere?extParam=ivf%3Dfalse%26src%3Dsearch%26whid%3D9767451"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1403,7 +1407,7 @@
   <sheetPr/>
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
